--- a/Report/Cinema-Booking_Group2_TaskSheet.xlsx
+++ b/Report/Cinema-Booking_Group2_TaskSheet.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Tasksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="autoNoTable"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -223,53 +223,64 @@
     <t>Trần Thụ Huy</t>
   </si>
   <si>
-    <t>Form for input: Employee</t>
-  </si>
-  <si>
-    <t>Form for input: Customer</t>
-  </si>
-  <si>
-    <t>Manage Bill and export Bill</t>
-  </si>
-  <si>
-    <t>Manage Ticket, and order product and export report by Excel</t>
-  </si>
-  <si>
     <t>Export report for Film by Excel</t>
-  </si>
-  <si>
-    <t>Employee,
-WorkingSession,</t>
-  </si>
-  <si>
-    <t>Manage login process
-Manage Personal Account
-Manage working session and export report by Excel</t>
   </si>
   <si>
     <t>Customer,
 Bill</t>
   </si>
   <si>
-    <t>note: Ticket table is empty and insert auto when choose 
-Ticket on user interface</t>
-  </si>
-  <si>
-    <t>Form for input: Film, Schedule,Actor</t>
-  </si>
-  <si>
-    <t>Form for input: Schedule</t>
-  </si>
-  <si>
-    <t>Film,Actor.
+    <t>Ticket Page</t>
+  </si>
+  <si>
+    <t>Product Page</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change information and password </t>
+  </si>
+  <si>
+    <t>Bill Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Bill </t>
+  </si>
+  <si>
+    <t>Report for Employee and export to Excel</t>
+  </si>
+  <si>
+    <t>Schedule management Page(View,New, Edit, Delete Scheule)</t>
+  </si>
+  <si>
+    <t>Employee managerment Page (View,New, Edit, Delete Employee)</t>
+  </si>
+  <si>
+    <t>Customer managerment Page (View,New, Edit Customer)</t>
+  </si>
+  <si>
+    <t>Film manager Page (View,New, Edit, Delete Film)</t>
+  </si>
+  <si>
+    <t>Home Page for Admin and Employee</t>
+  </si>
+  <si>
+    <t>Report for Product and export to Excel</t>
+  </si>
+  <si>
+    <t>Ticket,
+Schedule,
+ProductBill</t>
+  </si>
+  <si>
+    <t>Employee,
+WorkSession</t>
+  </si>
+  <si>
+    <t>Film,Actor,
 FilmGenreDetails,
 ActorOfFilm</t>
-  </si>
-  <si>
-    <t>Ticket,
-Schedule,
-TimeDetails,
-ProductBill</t>
   </si>
 </sst>
 </file>
@@ -277,7 +288,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -361,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -502,120 +513,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="43">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,52 +963,52 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="5.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="38" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="51.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.44140625" style="8" customWidth="1"/>
+    <col min="7" max="8" width="15.44140625" style="7" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
@@ -984,387 +1023,407 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="30">
+        <v>45006</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45010</v>
+      </c>
+      <c r="I4" s="31">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="5">
+        <v>45013</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45017</v>
+      </c>
+      <c r="I5" s="31">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="5">
+        <v>45020</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45024</v>
+      </c>
+      <c r="I6" s="31">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="35"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5">
+        <v>45027</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45041</v>
+      </c>
+      <c r="I7" s="31">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="33">
+        <v>2</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="30">
+        <v>45006</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45010</v>
+      </c>
+      <c r="I8" s="31">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="5">
+        <v>45013</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45017</v>
+      </c>
+      <c r="I9" s="31">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="5">
+        <v>45020</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45024</v>
+      </c>
+      <c r="I10" s="31">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5">
+        <v>45027</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45041</v>
+      </c>
+      <c r="I11" s="31">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="30">
+        <v>45006</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45010</v>
+      </c>
+      <c r="I12" s="31">
+        <v>5</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="5">
+        <v>45013</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45017</v>
+      </c>
+      <c r="I13" s="31">
+        <v>5</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="5">
+        <v>45020</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45024</v>
+      </c>
+      <c r="I14" s="31">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5">
+        <v>45027</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45041</v>
+      </c>
+      <c r="I15" s="31">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="33">
+        <v>4</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="6">
+      <c r="F16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="30">
         <v>45006</v>
       </c>
-      <c r="H4" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I4" s="16">
-        <v>5</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H5" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I5" s="16">
-        <v>5</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20" t="s">
+      <c r="H16" s="5">
+        <v>45010</v>
+      </c>
+      <c r="I16" s="31">
+        <v>5</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="5">
+        <v>45013</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45017</v>
+      </c>
+      <c r="I17" s="31">
+        <v>5</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="5">
+        <v>45020</v>
+      </c>
+      <c r="H18" s="5">
+        <v>45024</v>
+      </c>
+      <c r="I18" s="31">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H6" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I6" s="16">
-        <v>5</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H7" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I7" s="16">
-        <v>5</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
-        <v>2</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H8" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I8" s="16">
-        <v>5</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H9" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I9" s="16">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H10" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I10" s="16">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H11" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I11" s="16">
-        <v>5</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H12" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I12" s="16">
-        <v>5</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H13" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I13" s="16">
-        <v>5</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H14" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I14" s="16">
-        <v>5</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H15" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I15" s="16">
-        <v>5</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
-        <v>4</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H16" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I16" s="16">
-        <v>5</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H17" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I17" s="16">
-        <v>5</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H18" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I18" s="16">
-        <v>5</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="6">
-        <v>45006</v>
-      </c>
-      <c r="H19" s="6">
-        <v>45006</v>
-      </c>
-      <c r="I19" s="16">
-        <v>5</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="12" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="E19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="5">
+        <v>45027</v>
+      </c>
+      <c r="H19" s="5">
+        <v>45041</v>
+      </c>
+      <c r="I19" s="31">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="10" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:10" s="12" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="11" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" s="10" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
+      <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="24">
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
@@ -1376,23 +1435,9 @@
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
